--- a/biology/Médecine/Aluminium,_notre_poison_quotidien/Aluminium,_notre_poison_quotidien.xlsx
+++ b/biology/Médecine/Aluminium,_notre_poison_quotidien/Aluminium,_notre_poison_quotidien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aluminium, notre poison quotidien est un film documentaire réalisé en 2011 par la réalisatrice française Valérie Rouvière[1],[2] et la journaliste Émilie Helmbacher.
-Produit par Ligne de Mire Production[3] avec la participation de France Télévisions, il est diffusé pour la première fois sur France 5 le 22 janvier 2012[4],[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aluminium, notre poison quotidien est un film documentaire réalisé en 2011 par la réalisatrice française Valérie Rouvière, et la journaliste Émilie Helmbacher.
+Produit par Ligne de Mire Production avec la participation de France Télévisions, il est diffusé pour la première fois sur France 5 le 22 janvier 2012.
 </t>
         </is>
       </c>
@@ -512,20 +524,22 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le documentaire présente les différentes études et travaux réalisés sur la toxicité de l'aluminium et son utilisation dans le domaine agro-alimentaire.
-Le docteur Pierre Souvet, président de l'Association santé environnement France (ASEF), explique que de son point de vue, « alerter les populations sur la toxicité de l’aluminium me paraît important. C’est un produit inutile. […] Il n’apporte rien à l’organisme, si ce n’est des ennuis[7] ».
-Le documentaire militant indique que l'accumulation de cet élément dans le corps humain a des effets neurotoxiques[2], augmentant le risque de maladie d'Alzheimer ou causant une maladie infectieuse rare, la myofasciite à macrophages, syndrome identifié depuis 1993[7],[1].
+Le docteur Pierre Souvet, président de l'Association santé environnement France (ASEF), explique que de son point de vue, « alerter les populations sur la toxicité de l’aluminium me paraît important. C’est un produit inutile. […] Il n’apporte rien à l’organisme, si ce n’est des ennuis ».
+Le documentaire militant indique que l'accumulation de cet élément dans le corps humain a des effets neurotoxiques, augmentant le risque de maladie d'Alzheimer ou causant une maladie infectieuse rare, la myofasciite à macrophages, syndrome identifié depuis 1993,.
 L'association de consommateurs Que Choisir, comme le docteur Pierre Souvet, dénonce l'utilisation de l'aluminium dans l'alimentation :
-agent levant dans la boulangerie industrielle (pains et viennoiserie)[7],[2] ;
-agent de blanchiment dans des pains de mie très blancs[7] ;
-conservateur dans les charcuteries et plats préparés[7],[2] ;
-anti-agglomérant dans le sel de cuisine[7],[2] ;
-colorant dans les confiseries[7],[2].
-Il est également précisé qu'aucun texte ne contraint les industriels à afficher les quantités utilisées de cet élément, ni ne fixe de limite à ces usages[2]. L'Autorité européenne de sécurité des aliments conseille depuis 2008 aux consommateurs de ne pas dépasser la dose hebdomadaire d'aluminium (1 milligramme par semaine et par kilo corporel)[2].
-Le documentaire pose la question du remplacement des vaccins au phosphate de calcium (inoffensif) par ceux à l'aluminium[1].
-Le professeur Romain Gherardi, neuropathologiste à l'hôpital universitaire de Créteil, annonce en s'appuyant sur les recherches déjà menées : « sur les métaux, on a des histoires qui se répètent. Ce qui est arrivé pour le plomb, le mercure et l'amiante arrivera pour l'aluminium »[1],[7].
+agent levant dans la boulangerie industrielle (pains et viennoiserie), ;
+agent de blanchiment dans des pains de mie très blancs ;
+conservateur dans les charcuteries et plats préparés, ;
+anti-agglomérant dans le sel de cuisine, ;
+colorant dans les confiseries,.
+Il est également précisé qu'aucun texte ne contraint les industriels à afficher les quantités utilisées de cet élément, ni ne fixe de limite à ces usages. L'Autorité européenne de sécurité des aliments conseille depuis 2008 aux consommateurs de ne pas dépasser la dose hebdomadaire d'aluminium (1 milligramme par semaine et par kilo corporel).
+Le documentaire pose la question du remplacement des vaccins au phosphate de calcium (inoffensif) par ceux à l'aluminium.
+Le professeur Romain Gherardi, neuropathologiste à l'hôpital universitaire de Créteil, annonce en s'appuyant sur les recherches déjà menées : « sur les métaux, on a des histoires qui se répètent. Ce qui est arrivé pour le plomb, le mercure et l'amiante arrivera pour l'aluminium »,.
 </t>
         </is>
       </c>
